--- a/inst/record/Performance record.xlsx
+++ b/inst/record/Performance record.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">
 matMul&lt;-function(id,A,B){
@@ -114,6 +114,12 @@
   <si>
     <t>gpu 940m:150s</t>
   </si>
+  <si>
+    <t>cpu:i5-6300U</t>
+  </si>
+  <si>
+    <t>gpu:940m</t>
+  </si>
 </sst>
 </file>
 
@@ -160,15 +166,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,17 +467,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="M1" t="s">
         <v>1</v>
       </c>
@@ -480,15 +486,15 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="M2" t="s">
         <v>2</v>
       </c>
@@ -497,355 +503,355 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -861,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -871,17 +877,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="M1" t="s">
         <v>1</v>
       </c>
@@ -893,15 +899,15 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="M2" t="s">
         <v>2</v>
       </c>
@@ -913,355 +919,370 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>6.59</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>14.58</v>
+      </c>
+      <c r="O4">
+        <v>13.33</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1269,6 +1290,7 @@
     <mergeCell ref="A33:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1286,13 +1308,13 @@
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
       <c r="J1" t="s">
         <v>10</v>
       </c>
@@ -1301,77 +1323,77 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/inst/record/Performance record.xlsx
+++ b/inst/record/Performance record.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangj\OneDrive\course material\work\Roswell park\gpuMagic\inst\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\OneDrive\course material\work\Roswell park\gpuMagic\inst\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">
 matMul&lt;-function(id,A,B){
@@ -62,24 +62,6 @@
   res2=A%*%B,
   times = 10
 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-n=1024
-m=10000
-k=1024
-A=matrix(runif(n*m),n,m)
-B=matrix(runif(n*m),m,k)
-matMul2&lt;-function(ind,A,B){
-  j=ind
-  C=matrix(0,nrow(A),1)
-  for(i in 1:nrow(A)){
-    for(k in 1:ncol(A)){
-      C[i]=C[i]+A[i,k]*B[k,j]
-    }
-  }
-  return(C)
-}</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -119,6 +101,34 @@
   </si>
   <si>
     <t>gpu:940m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+n=1024
+m=10000
+k=1024
+A=matrix(runif(n*m),n,m)
+B=matrix(runif(n*m),m,k)
+matMul2&lt;-function(ind,A,B){
+  j=ind
+  C=matrix(0,nrow(A),1)
+  for(i in 1:nrow(A)){
+    for(k in 1:ncol(A)){
+      C[i]=C[i]+A[i,k]*B[k,j]
+    }
+  }
+  return(C)
+}
+opt1
+test3&lt;-function(ind,A,B){
+  #tmp=B[,ind]
+  tmp=subRef(B,,ind)
+  C=A%*%tmp
+  return(C)
+}</t>
+  </si>
+  <si>
+    <t>opt1</t>
   </si>
 </sst>
 </file>
@@ -461,12 +471,12 @@
       <selection sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="13.59765625" customWidth="1"/>
+    <col min="13" max="13" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,7 +495,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -502,7 +512,7 @@
         <v>28.79</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -513,7 +523,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -524,7 +534,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -535,7 +545,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -546,7 +556,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -557,7 +567,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -568,7 +578,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -579,7 +589,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -590,7 +600,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -601,7 +611,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -612,7 +622,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -623,7 +633,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -634,7 +644,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -645,7 +655,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -656,7 +666,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -667,7 +677,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -678,7 +688,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -689,7 +699,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -700,7 +710,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -711,7 +721,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -722,7 +732,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -733,7 +743,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -744,7 +754,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -755,7 +765,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -766,7 +776,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -777,7 +787,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -788,7 +798,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -799,7 +809,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -810,7 +820,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -821,34 +831,34 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -867,18 +877,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="13.59765625" customWidth="1"/>
+    <col min="13" max="13" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -898,7 +908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -918,7 +928,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -928,14 +938,17 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N3">
         <v>6.59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -946,7 +959,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N4">
         <v>14.58</v>
@@ -955,7 +968,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -965,8 +978,14 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -977,7 +996,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -988,7 +1007,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -999,7 +1018,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1010,7 +1029,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1021,7 +1040,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1032,7 +1051,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1043,7 +1062,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1054,7 +1073,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1065,7 +1084,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1076,7 +1095,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1087,7 +1106,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1098,7 +1117,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1109,7 +1128,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1120,7 +1139,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1131,7 +1150,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1142,7 +1161,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1153,7 +1172,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1164,7 +1183,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1175,7 +1194,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1186,7 +1205,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1197,7 +1216,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1208,7 +1227,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1219,7 +1238,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1230,7 +1249,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1241,7 +1260,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1252,34 +1271,34 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1302,26 +1321,26 @@
       <selection activeCell="B1" sqref="B1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="J1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1329,9 +1348,9 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1339,56 +1358,56 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>

--- a/inst/record/Performance record.xlsx
+++ b/inst/record/Performance record.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t xml:space="preserve">
 matMul&lt;-function(id,A,B){
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>opt1</t>
+  </si>
+  <si>
+    <t>opt2</t>
   </si>
 </sst>
 </file>
@@ -878,7 +881,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -995,6 +998,12 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
@@ -1006,6 +1015,15 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>

--- a/inst/record/Performance record.xlsx
+++ b/inst/record/Performance record.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t xml:space="preserve">
 matMul&lt;-function(id,A,B){
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>gpu:940m</t>
+  </si>
+  <si>
+    <t>opt1</t>
+  </si>
+  <si>
+    <t>opt2</t>
+  </si>
+  <si>
+    <t>version1</t>
+  </si>
+  <si>
+    <t>version2</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -125,13 +137,16 @@
   tmp=subRef(B,,ind)
   C=A%*%tmp
   return(C)
-}</t>
-  </si>
-  <si>
-    <t>opt1</t>
-  </si>
-  <si>
-    <t>opt2</t>
+}
+opt2
+tmp=subRef(A,ind,)
+  #tmp=A[ind,]
+  C=tmp%*%B
+  return(C)
+</t>
+  </si>
+  <si>
+    <t>no subRef</t>
   </si>
 </sst>
 </file>
@@ -881,7 +896,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -941,8 +956,8 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="L3" t="s">
-        <v>13</v>
+      <c r="K3" t="s">
+        <v>12</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
@@ -1015,6 +1030,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
       <c r="L7" t="s">
         <v>14</v>
       </c>
@@ -1035,6 +1053,15 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1046,6 +1073,15 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -1278,7 +1314,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="318.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>

--- a/inst/record/Performance record.xlsx
+++ b/inst/record/Performance record.xlsx
@@ -896,7 +896,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/inst/record/Performance record.xlsx
+++ b/inst/record/Performance record.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\OneDrive\course material\work\Roswell park\gpuMagic\inst\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangj\OneDrive\course material\work\Roswell park\gpuMagic\inst\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t xml:space="preserve">
 matMul&lt;-function(id,A,B){
@@ -147,6 +148,39 @@
   </si>
   <si>
     <t>no subRef</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>1(12/9)</t>
+  </si>
+  <si>
+    <t>2(12/9)</t>
+  </si>
+  <si>
+    <t>testFunc_A</t>
+  </si>
+  <si>
+    <t>testFunc_A_subRef</t>
+  </si>
+  <si>
+    <t>testFunc_B</t>
+  </si>
+  <si>
+    <t>testFunc_B_subRef</t>
+  </si>
+  <si>
+    <t>3(12/11)</t>
+  </si>
+  <si>
+    <t>intel card</t>
+  </si>
+  <si>
+    <t>4(12/11)</t>
+  </si>
+  <si>
+    <t>940m</t>
   </si>
 </sst>
 </file>
@@ -489,12 +523,12 @@
       <selection sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="13" max="13" width="13.6328125" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,7 +547,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -530,7 +564,7 @@
         <v>28.79</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -541,7 +575,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -552,7 +586,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -563,7 +597,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -574,7 +608,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -585,7 +619,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -596,7 +630,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -607,7 +641,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -618,7 +652,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -629,7 +663,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -640,7 +674,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -651,7 +685,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -662,7 +696,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -673,7 +707,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -684,7 +718,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -695,7 +729,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -706,7 +740,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -717,7 +751,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -728,7 +762,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -739,7 +773,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -750,7 +784,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -761,7 +795,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -772,7 +806,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -783,7 +817,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -794,7 +828,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -805,7 +839,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -816,7 +850,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -827,7 +861,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -838,7 +872,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -849,34 +883,34 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -895,16 +929,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="13" max="13" width="13.6328125" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -926,7 +960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -946,7 +980,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -966,7 +1000,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -986,7 +1020,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1003,7 +1037,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1020,7 +1054,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1043,7 +1077,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1063,7 +1097,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1083,7 +1117,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1094,7 +1128,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1105,7 +1139,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1116,7 +1150,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1127,7 +1161,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1138,7 +1172,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1149,7 +1183,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1160,7 +1194,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1171,7 +1205,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1182,7 +1216,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1193,7 +1227,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1204,7 +1238,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1215,7 +1249,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1226,7 +1260,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1237,7 +1271,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1248,7 +1282,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1259,7 +1293,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1270,7 +1304,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1281,7 +1315,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1292,7 +1326,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1303,7 +1337,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1314,7 +1348,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="318.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="318.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1325,34 +1359,34 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1375,9 +1409,9 @@
       <selection activeCell="B1" sqref="B1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +1426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1402,7 +1436,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1412,56 +1446,56 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1475,4 +1509,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>2.56</v>
+      </c>
+      <c r="C2">
+        <v>2.73</v>
+      </c>
+      <c r="D2">
+        <v>6.2</v>
+      </c>
+      <c r="E2">
+        <v>4.84</v>
+      </c>
+      <c r="F2">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>2.41</v>
+      </c>
+      <c r="C3">
+        <v>2.19</v>
+      </c>
+      <c r="D3">
+        <v>9.92</v>
+      </c>
+      <c r="E3">
+        <v>6.05</v>
+      </c>
+      <c r="F3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>3.53</v>
+      </c>
+      <c r="C4">
+        <v>3.62</v>
+      </c>
+      <c r="D4">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="E4">
+        <v>8.33</v>
+      </c>
+      <c r="F4">
+        <v>12.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>3.89</v>
+      </c>
+      <c r="C5">
+        <v>3.09</v>
+      </c>
+      <c r="D5">
+        <v>15.97</v>
+      </c>
+      <c r="E5">
+        <v>13.06</v>
+      </c>
+      <c r="F5">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>1070</v>
+      </c>
+      <c r="C6">
+        <v>1070</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/record/Performance record.xlsx
+++ b/inst/record/Performance record.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\OneDrive\course material\work\Roswell park\gpuMagic\inst\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangj\OneDrive\course material\work\Roswell park\gpuMagic\inst\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t xml:space="preserve">
 matMul&lt;-function(id,A,B){
@@ -193,6 +193,21 @@
   </si>
   <si>
     <t>1600x</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>Optimal</t>
   </si>
 </sst>
 </file>
@@ -536,12 +551,12 @@
       <selection sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="13" max="13" width="13.6328125" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -560,7 +575,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -577,7 +592,7 @@
         <v>28.79</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -588,7 +603,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -599,7 +614,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -610,7 +625,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -621,7 +636,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -632,7 +647,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -643,7 +658,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -654,7 +669,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -665,7 +680,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -676,7 +691,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -687,7 +702,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -698,7 +713,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -709,7 +724,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -720,7 +735,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -731,7 +746,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -742,7 +757,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -753,7 +768,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -764,7 +779,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -775,7 +790,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -786,7 +801,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -797,7 +812,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -808,7 +823,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -819,7 +834,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -830,7 +845,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -841,7 +856,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -852,7 +867,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -863,7 +878,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -874,7 +889,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -885,7 +900,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -896,34 +911,34 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -942,16 +957,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="13" max="13" width="13.6328125" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -973,7 +988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -993,7 +1008,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1013,7 +1028,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1033,7 +1048,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1050,7 +1065,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1067,7 +1082,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1090,7 +1105,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1110,7 +1125,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1130,7 +1145,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1141,7 +1156,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1152,7 +1167,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1163,7 +1178,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1174,7 +1189,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1185,7 +1200,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1196,7 +1211,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1207,7 +1222,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1218,7 +1233,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1229,7 +1244,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1240,7 +1255,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1251,7 +1266,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1262,7 +1277,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1273,7 +1288,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1284,7 +1299,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1295,7 +1310,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1306,7 +1321,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1317,7 +1332,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1328,7 +1343,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1339,7 +1354,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1350,7 +1365,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1361,7 +1376,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="318.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="318.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1372,34 +1387,34 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1422,9 +1437,9 @@
       <selection activeCell="B1" sqref="B1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1439,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1449,7 +1464,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1459,56 +1474,56 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1526,18 +1541,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="19.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1584,7 +1599,7 @@
         <v>43451</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1637,7 +1652,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1690,7 +1705,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1740,7 +1755,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +1805,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1798,7 +1813,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1070</v>
       </c>
@@ -1848,9 +1863,65 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>9.92</v>
+      </c>
+      <c r="D14">
+        <v>1.71</v>
+      </c>
+      <c r="E14">
+        <v>4.55</v>
+      </c>
+      <c r="F14">
+        <v>3.2949999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>2.8</v>
+      </c>
+      <c r="D15">
+        <v>1.85</v>
+      </c>
+      <c r="E15">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>3.56</v>
       </c>
     </row>
   </sheetData>
